--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9355,28 +9355,13 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="100" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="105" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="105" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="102" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9386,6 +9371,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1434,6 +1434,9 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -5703,7 +5706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6842,27 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7368,36 +7392,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="6.0" customWidth="true"/>
-    <col min="27" max="27" width="21.77734375" customWidth="true"/>
-    <col min="28" max="28" width="21.77734375" customWidth="true"/>
-    <col min="29" max="29" width="21.77734375" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9391,23 +9415,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9987,23 +10011,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10590,23 +10614,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11185,23 +11209,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11787,23 +11811,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11982,33 +12006,42 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="G18" s="125" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="125" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
       <c r="B19" s="127" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="G19" s="125" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="125" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
       <c r="B20" s="127" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="G20" s="125" t="n">
-        <f>((E20-C20)*24)-1</f>
-        <v>0.0</v>
+      <c r="C20" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="125" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -12025,11 +12058,14 @@
       <c r="B22" s="127" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="G22" s="125" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="125" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -12056,8 +12092,12 @@
       <c r="B25" s="127" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="C25" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="125" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12067,8 +12107,12 @@
       <c r="B26" s="127" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="E26" s="128"/>
+      <c r="C26" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="125" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12078,8 +12122,12 @@
       <c r="B27" s="127" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="E27" s="128"/>
+      <c r="C27" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="125" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12089,8 +12137,12 @@
       <c r="B28" s="127" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="E28" s="128"/>
+      <c r="C28" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="125" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12100,8 +12152,12 @@
       <c r="B29" s="127" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="C29" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="125" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12131,8 +12187,12 @@
       <c r="B32" s="127" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="E32" s="128"/>
+      <c r="C32" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="125" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12142,8 +12202,12 @@
       <c r="B33" s="127" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="C33" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="125" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12153,8 +12217,12 @@
       <c r="B34" s="127" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="E34" s="128"/>
+      <c r="C34" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="125" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12164,8 +12232,12 @@
       <c r="B35" s="127" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="C35" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="125" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12175,8 +12247,12 @@
       <c r="B36" s="127" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="E36" s="128"/>
+      <c r="C36" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="125" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12206,8 +12282,12 @@
       <c r="B39" s="127" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="491" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E39" s="491" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G39" s="125" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12217,8 +12297,12 @@
       <c r="B40" s="127" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="E40" s="128"/>
+      <c r="C40" s="491" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E40" s="491" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G40" s="125" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12228,8 +12312,12 @@
       <c r="B41" s="127" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="E41" s="128"/>
+      <c r="C41" s="491" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E41" s="491" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G41" s="125" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12239,8 +12327,12 @@
       <c r="B42" s="127" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="E42" s="128"/>
+      <c r="C42" s="491" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E42" s="491" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G42" s="125" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12250,8 +12342,12 @@
       <c r="B43" s="127" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="128"/>
-      <c r="E43" s="128"/>
+      <c r="C43" s="491" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E43" s="491" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G43" s="125" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12281,8 +12377,12 @@
       <c r="B46" s="127" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="E46" s="128"/>
+      <c r="C46" s="491" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E46" s="491" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G46" s="125" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12411,23 +12511,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12585,8 +12685,12 @@
       <c r="B16" s="161" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="E16" s="162"/>
+      <c r="C16" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="159" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -12596,8 +12700,12 @@
       <c r="B17" s="161" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="162"/>
-      <c r="E17" s="162"/>
+      <c r="C17" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="159" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12607,8 +12715,12 @@
       <c r="B18" s="161" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="E18" s="162"/>
+      <c r="C18" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="159" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12618,8 +12730,12 @@
       <c r="B19" s="161" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="E19" s="162"/>
+      <c r="C19" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="159" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12649,8 +12765,12 @@
       <c r="B22" s="161" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="E22" s="162"/>
+      <c r="C22" s="493" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E22" s="493" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G22" s="159" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12660,8 +12780,12 @@
       <c r="B23" s="161" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="162"/>
-      <c r="E23" s="162"/>
+      <c r="C23" s="493" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E23" s="493" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G23" s="159" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -12671,8 +12795,12 @@
       <c r="B24" s="161" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="162"/>
-      <c r="E24" s="162"/>
+      <c r="C24" s="493" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E24" s="493" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G24" s="159" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -12682,8 +12810,12 @@
       <c r="B25" s="161" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="E25" s="162"/>
+      <c r="C25" s="493" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E25" s="493" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G25" s="159" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12693,8 +12825,12 @@
       <c r="B26" s="161" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="162"/>
-      <c r="E26" s="162"/>
+      <c r="C26" s="493" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E26" s="493" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G26" s="159" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12724,8 +12860,12 @@
       <c r="B29" s="161" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="E29" s="162"/>
+      <c r="C29" s="493" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E29" s="493" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G29" s="159" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12735,8 +12875,12 @@
       <c r="B30" s="161" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="162"/>
-      <c r="E30" s="162"/>
+      <c r="C30" s="493" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E30" s="493" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G30" s="159" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -12746,8 +12890,12 @@
       <c r="B31" s="161" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="162"/>
-      <c r="E31" s="162"/>
+      <c r="C31" s="493" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E31" s="493" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G31" s="159" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -12757,8 +12905,12 @@
       <c r="B32" s="161" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="162"/>
-      <c r="E32" s="162"/>
+      <c r="C32" s="493" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E32" s="493" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G32" s="159" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12768,8 +12920,12 @@
       <c r="B33" s="161" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="162"/>
-      <c r="E33" s="162"/>
+      <c r="C33" s="493" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E33" s="493" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G33" s="159" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12799,8 +12955,12 @@
       <c r="B36" s="161" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="E36" s="162"/>
+      <c r="C36" s="493" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E36" s="493" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G36" s="159" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12810,8 +12970,12 @@
       <c r="B37" s="161" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="162"/>
-      <c r="E37" s="162"/>
+      <c r="C37" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="159" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -12821,8 +12985,12 @@
       <c r="B38" s="161" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="162"/>
-      <c r="E38" s="162"/>
+      <c r="C38" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="159" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -12832,8 +13000,12 @@
       <c r="B39" s="161" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="162"/>
-      <c r="E39" s="162"/>
+      <c r="C39" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G39" s="159" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12843,8 +13015,12 @@
       <c r="B40" s="161" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="E40" s="162"/>
+      <c r="C40" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="159" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12874,8 +13050,12 @@
       <c r="B43" s="161" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="162"/>
-      <c r="E43" s="162"/>
+      <c r="C43" s="493" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="493" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="159" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13020,23 +13200,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13194,8 +13374,12 @@
       <c r="B16" s="195" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="196"/>
-      <c r="E16" s="196"/>
+      <c r="C16" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="193" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13205,8 +13389,12 @@
       <c r="B17" s="195" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="E17" s="196"/>
+      <c r="C17" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="193" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -13216,8 +13404,12 @@
       <c r="B18" s="195" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="196"/>
-      <c r="E18" s="196"/>
+      <c r="C18" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="193" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -13227,8 +13419,12 @@
       <c r="B19" s="195" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="E19" s="196"/>
+      <c r="C19" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="494" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="193" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13258,19 +13454,26 @@
       <c r="B22" s="195" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="E22" s="196"/>
-      <c r="G22" s="193" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="196" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="193" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
       <c r="B23" s="195" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="196"/>
-      <c r="E23" s="196"/>
+      <c r="C23" s="494" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G23" s="193" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13280,8 +13483,12 @@
       <c r="B24" s="195" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="196"/>
-      <c r="E24" s="196"/>
+      <c r="C24" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E24" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G24" s="193" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -13291,8 +13498,12 @@
       <c r="B25" s="195" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="196"/>
-      <c r="E25" s="196"/>
+      <c r="C25" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E25" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G25" s="193" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -13302,8 +13513,12 @@
       <c r="B26" s="195" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="196"/>
-      <c r="E26" s="196"/>
+      <c r="C26" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E26" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G26" s="193" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13333,8 +13548,12 @@
       <c r="B29" s="195" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="196"/>
-      <c r="E29" s="196"/>
+      <c r="C29" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E29" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G29" s="193" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -13344,8 +13563,12 @@
       <c r="B30" s="195" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="196"/>
-      <c r="E30" s="196"/>
+      <c r="C30" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E30" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G30" s="193" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -13355,8 +13578,12 @@
       <c r="B31" s="195" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="196"/>
-      <c r="E31" s="196"/>
+      <c r="C31" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E31" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G31" s="193" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -13366,8 +13593,12 @@
       <c r="B32" s="195" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="196"/>
-      <c r="E32" s="196"/>
+      <c r="C32" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E32" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G32" s="193" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -13377,8 +13608,12 @@
       <c r="B33" s="195" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="196"/>
-      <c r="E33" s="196"/>
+      <c r="C33" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E33" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G33" s="193" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -13408,8 +13643,12 @@
       <c r="B36" s="195" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="196"/>
-      <c r="E36" s="196"/>
+      <c r="C36" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E36" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G36" s="193" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -13419,8 +13658,12 @@
       <c r="B37" s="195" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="196"/>
-      <c r="E37" s="196"/>
+      <c r="C37" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E37" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G37" s="193" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -13430,8 +13673,12 @@
       <c r="B38" s="195" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="196"/>
-      <c r="E38" s="196"/>
+      <c r="C38" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E38" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G38" s="193" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -13441,8 +13688,12 @@
       <c r="B39" s="195" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="196"/>
-      <c r="E39" s="196"/>
+      <c r="C39" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E39" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G39" s="193" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -13452,8 +13703,12 @@
       <c r="B40" s="195" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="196"/>
-      <c r="E40" s="196"/>
+      <c r="C40" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E40" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G40" s="193" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -13483,8 +13738,12 @@
       <c r="B43" s="195" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="196"/>
-      <c r="E43" s="196"/>
+      <c r="C43" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E43" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G43" s="193" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13494,8 +13753,12 @@
       <c r="B44" s="195" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="196"/>
-      <c r="E44" s="196"/>
+      <c r="C44" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E44" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G44" s="193" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -13505,8 +13768,12 @@
       <c r="B45" s="195" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="196"/>
-      <c r="E45" s="196"/>
+      <c r="C45" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E45" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G45" s="193" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -13516,8 +13783,12 @@
       <c r="B46" s="195" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="196"/>
-      <c r="E46" s="196"/>
+      <c r="C46" s="494" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E46" s="494" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G46" s="193" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -13641,23 +13912,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13846,8 +14117,12 @@
       <c r="B19" s="228" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="229"/>
-      <c r="E19" s="229"/>
+      <c r="C19" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="226" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13857,8 +14132,12 @@
       <c r="B20" s="228" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="E20" s="229"/>
+      <c r="C20" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="226" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -13868,8 +14147,12 @@
       <c r="B21" s="228" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="E21" s="229"/>
+      <c r="C21" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="226" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -13879,8 +14162,12 @@
       <c r="B22" s="228" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="229"/>
-      <c r="E22" s="229"/>
+      <c r="C22" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="226" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13890,8 +14177,12 @@
       <c r="B23" s="228" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="229"/>
-      <c r="E23" s="229"/>
+      <c r="C23" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="226" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13921,8 +14212,12 @@
       <c r="B26" s="228" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="229"/>
-      <c r="E26" s="229"/>
+      <c r="C26" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="226" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13932,8 +14227,12 @@
       <c r="B27" s="228" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="E27" s="229"/>
+      <c r="C27" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="226" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -13943,8 +14242,12 @@
       <c r="B28" s="228" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="229"/>
-      <c r="E28" s="229"/>
+      <c r="C28" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="226" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -13954,11 +14257,14 @@
       <c r="B29" s="228" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="229"/>
-      <c r="E29" s="229"/>
-      <c r="G29" s="226" t="n">
-        <f>((E29-C29)*24)-1</f>
-        <v>0.0</v>
+      <c r="C29" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="496" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G29" s="226" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
@@ -14005,8 +14311,12 @@
       <c r="B34" s="228" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="229"/>
-      <c r="E34" s="229"/>
+      <c r="C34" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="226" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14016,8 +14326,12 @@
       <c r="B35" s="228" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="229"/>
-      <c r="E35" s="229"/>
+      <c r="C35" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="226" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14027,8 +14341,12 @@
       <c r="B36" s="228" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="229"/>
-      <c r="E36" s="229"/>
+      <c r="C36" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="226" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -14038,8 +14356,12 @@
       <c r="B37" s="228" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="229"/>
-      <c r="E37" s="229"/>
+      <c r="C37" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="226" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -14069,8 +14391,12 @@
       <c r="B40" s="228" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="229"/>
-      <c r="E40" s="229"/>
+      <c r="C40" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="226" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -14080,8 +14406,12 @@
       <c r="B41" s="228" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="229"/>
-      <c r="E41" s="229"/>
+      <c r="C41" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="226" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -14091,8 +14421,12 @@
       <c r="B42" s="228" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="229"/>
-      <c r="E42" s="229"/>
+      <c r="C42" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="226" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -14102,8 +14436,12 @@
       <c r="B43" s="228" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="229"/>
-      <c r="E43" s="229"/>
+      <c r="C43" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="226" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -14113,8 +14451,12 @@
       <c r="B44" s="228" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="229"/>
-      <c r="E44" s="229"/>
+      <c r="C44" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="226" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -14253,23 +14595,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14873,23 +15215,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15471,23 +15813,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16073,23 +16415,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -5706,7 +5706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="497">
+  <cellXfs count="501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6842,6 +6842,18 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -12489,6 +12501,7 @@
       <c r="H62" s="139"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13178,6 +13191,7 @@
       <c r="H62" s="173"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13890,6 +13904,7 @@
       <c r="H62" s="206"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14086,8 +14101,12 @@
       <c r="B16" s="228" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="E16" s="229"/>
+      <c r="C16" s="497" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E16" s="497" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G16" s="226" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -14117,10 +14136,10 @@
       <c r="B19" s="228" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="496" t="n">
+      <c r="C19" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E19" s="496" t="n">
+      <c r="E19" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G19" s="226" t="n">
@@ -14132,10 +14151,10 @@
       <c r="B20" s="228" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="496" t="n">
+      <c r="C20" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E20" s="496" t="n">
+      <c r="E20" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G20" s="226" t="n">
@@ -14147,10 +14166,10 @@
       <c r="B21" s="228" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="496" t="n">
+      <c r="C21" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E21" s="496" t="n">
+      <c r="E21" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G21" s="226" t="n">
@@ -14162,10 +14181,10 @@
       <c r="B22" s="228" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="496" t="n">
+      <c r="C22" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E22" s="496" t="n">
+      <c r="E22" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G22" s="226" t="n">
@@ -14177,10 +14196,10 @@
       <c r="B23" s="228" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="496" t="n">
+      <c r="C23" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E23" s="496" t="n">
+      <c r="E23" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G23" s="226" t="n">
@@ -14212,10 +14231,10 @@
       <c r="B26" s="228" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="496" t="n">
+      <c r="C26" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E26" s="496" t="n">
+      <c r="E26" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G26" s="226" t="n">
@@ -14227,10 +14246,10 @@
       <c r="B27" s="228" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="496" t="n">
+      <c r="C27" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E27" s="496" t="n">
+      <c r="E27" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G27" s="226" t="n">
@@ -14242,10 +14261,10 @@
       <c r="B28" s="228" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="496" t="n">
+      <c r="C28" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E28" s="496" t="n">
+      <c r="E28" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G28" s="226" t="n">
@@ -14257,10 +14276,10 @@
       <c r="B29" s="228" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="496" t="n">
+      <c r="C29" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E29" s="496" t="n">
+      <c r="E29" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G29" s="226" t="s">
@@ -14311,10 +14330,10 @@
       <c r="B34" s="228" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="496" t="n">
+      <c r="C34" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E34" s="496" t="n">
+      <c r="E34" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G34" s="226" t="n">
@@ -14326,10 +14345,10 @@
       <c r="B35" s="228" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="496" t="n">
+      <c r="C35" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E35" s="496" t="n">
+      <c r="E35" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G35" s="226" t="n">
@@ -14341,10 +14360,10 @@
       <c r="B36" s="228" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="496" t="n">
+      <c r="C36" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E36" s="496" t="n">
+      <c r="E36" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G36" s="226" t="n">
@@ -14356,10 +14375,10 @@
       <c r="B37" s="228" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="496" t="n">
+      <c r="C37" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E37" s="496" t="n">
+      <c r="E37" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G37" s="226" t="n">
@@ -14391,10 +14410,10 @@
       <c r="B40" s="228" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="496" t="n">
+      <c r="C40" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E40" s="496" t="n">
+      <c r="E40" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G40" s="226" t="n">
@@ -14406,10 +14425,10 @@
       <c r="B41" s="228" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="496" t="n">
+      <c r="C41" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E41" s="496" t="n">
+      <c r="E41" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G41" s="226" t="n">
@@ -14421,10 +14440,10 @@
       <c r="B42" s="228" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="496" t="n">
+      <c r="C42" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E42" s="496" t="n">
+      <c r="E42" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G42" s="226" t="n">
@@ -14436,10 +14455,10 @@
       <c r="B43" s="228" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="496" t="n">
+      <c r="C43" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E43" s="496" t="n">
+      <c r="E43" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G43" s="226" t="n">
@@ -14451,10 +14470,10 @@
       <c r="B44" s="228" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="496" t="n">
+      <c r="C44" s="497" t="n">
         <v>0.375</v>
       </c>
-      <c r="E44" s="496" t="n">
+      <c r="E44" s="497" t="n">
         <v>0.75</v>
       </c>
       <c r="G44" s="226" t="n">
@@ -14573,6 +14592,7 @@
       <c r="H62" s="239"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14779,8 +14799,12 @@
       <c r="B17" s="261" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="262"/>
-      <c r="E17" s="262"/>
+      <c r="C17" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="259" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -14790,8 +14814,12 @@
       <c r="B18" s="261" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="262"/>
-      <c r="E18" s="262"/>
+      <c r="C18" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="259" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -14801,8 +14829,12 @@
       <c r="B19" s="261" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="262"/>
-      <c r="E19" s="262"/>
+      <c r="C19" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="259" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -14812,8 +14844,12 @@
       <c r="B20" s="261" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="262"/>
-      <c r="E20" s="262"/>
+      <c r="C20" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="259" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -14823,8 +14859,12 @@
       <c r="B21" s="261" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="262"/>
-      <c r="E21" s="262"/>
+      <c r="C21" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="259" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -14854,8 +14894,12 @@
       <c r="B24" s="261" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="262"/>
-      <c r="E24" s="262"/>
+      <c r="C24" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="259" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -14865,8 +14909,12 @@
       <c r="B25" s="261" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="262"/>
-      <c r="E25" s="262"/>
+      <c r="C25" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="259" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -14876,8 +14924,12 @@
       <c r="B26" s="261" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="262"/>
-      <c r="E26" s="262"/>
+      <c r="C26" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="259" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -14887,8 +14939,12 @@
       <c r="B27" s="261" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="262"/>
-      <c r="E27" s="262"/>
+      <c r="C27" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="259" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14898,11 +14954,14 @@
       <c r="B28" s="261" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="262"/>
-      <c r="E28" s="262"/>
-      <c r="G28" s="259" t="n">
-        <f>((E28-C28)*24)-1</f>
-        <v>0.0</v>
+      <c r="C28" s="262" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="262" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="259" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" ht="14.4" customHeight="true">
@@ -14929,8 +14988,12 @@
       <c r="B31" s="261" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="262"/>
-      <c r="E31" s="262"/>
+      <c r="C31" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E31" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G31" s="259" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -14940,8 +15003,12 @@
       <c r="B32" s="261" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="262"/>
-      <c r="E32" s="262"/>
+      <c r="C32" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E32" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G32" s="259" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -14951,8 +15018,12 @@
       <c r="B33" s="261" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="262"/>
-      <c r="E33" s="262"/>
+      <c r="C33" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E33" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G33" s="259" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -14962,8 +15033,12 @@
       <c r="B34" s="261" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="262"/>
-      <c r="E34" s="262"/>
+      <c r="C34" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E34" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G34" s="259" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14973,8 +15048,12 @@
       <c r="B35" s="261" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="262"/>
-      <c r="E35" s="262"/>
+      <c r="C35" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E35" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G35" s="259" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -15004,8 +15083,12 @@
       <c r="B38" s="261" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="262"/>
-      <c r="E38" s="262"/>
+      <c r="C38" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E38" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G38" s="259" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -15015,8 +15098,12 @@
       <c r="B39" s="261" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="262"/>
-      <c r="E39" s="262"/>
+      <c r="C39" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E39" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G39" s="259" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -15026,8 +15113,12 @@
       <c r="B40" s="261" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="262"/>
-      <c r="E40" s="262"/>
+      <c r="C40" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E40" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G40" s="259" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -15037,8 +15128,12 @@
       <c r="B41" s="261" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="262"/>
-      <c r="E41" s="262"/>
+      <c r="C41" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E41" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G41" s="259" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -15048,8 +15143,12 @@
       <c r="B42" s="261" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="262"/>
-      <c r="E42" s="262"/>
+      <c r="C42" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E42" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G42" s="259" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15079,8 +15178,12 @@
       <c r="B45" s="261" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="262"/>
-      <c r="E45" s="262"/>
+      <c r="C45" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E45" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G45" s="259" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15090,8 +15193,12 @@
       <c r="B46" s="261" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="262"/>
-      <c r="E46" s="262"/>
+      <c r="C46" s="498" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E46" s="498" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G46" s="259" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -15378,8 +15485,12 @@
       <c r="B16" s="293" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="294"/>
-      <c r="E16" s="294"/>
+      <c r="C16" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="291" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -15389,8 +15500,12 @@
       <c r="B17" s="293" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="294"/>
-      <c r="E17" s="294"/>
+      <c r="C17" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="291" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -15400,8 +15515,12 @@
       <c r="B18" s="293" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="294"/>
-      <c r="E18" s="294"/>
+      <c r="C18" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="291" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -15441,8 +15560,12 @@
       <c r="B22" s="293" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="294"/>
-      <c r="E22" s="294"/>
+      <c r="C22" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="291" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -15452,8 +15575,12 @@
       <c r="B23" s="293" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="294"/>
-      <c r="E23" s="294"/>
+      <c r="C23" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="291" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -15463,8 +15590,12 @@
       <c r="B24" s="293" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="E24" s="294"/>
+      <c r="C24" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="291" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -15474,8 +15605,12 @@
       <c r="B25" s="293" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="E25" s="294"/>
+      <c r="C25" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="291" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -15505,8 +15640,12 @@
       <c r="B28" s="293" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="E28" s="294"/>
+      <c r="C28" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="291" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -15516,8 +15655,12 @@
       <c r="B29" s="293" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="294"/>
-      <c r="E29" s="294"/>
+      <c r="C29" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="291" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -15527,8 +15670,12 @@
       <c r="B30" s="293" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="294"/>
-      <c r="E30" s="294"/>
+      <c r="C30" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="291" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -15538,8 +15685,12 @@
       <c r="B31" s="293" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="294"/>
-      <c r="E31" s="294"/>
+      <c r="C31" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="291" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -15549,8 +15700,12 @@
       <c r="B32" s="293" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="294"/>
-      <c r="E32" s="294"/>
+      <c r="C32" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="291" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -15580,8 +15735,12 @@
       <c r="B35" s="293" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="294"/>
-      <c r="E35" s="294"/>
+      <c r="C35" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="291" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -15591,8 +15750,12 @@
       <c r="B36" s="293" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="294"/>
-      <c r="E36" s="294"/>
+      <c r="C36" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="291" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -15602,8 +15765,12 @@
       <c r="B37" s="293" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="294"/>
-      <c r="E37" s="294"/>
+      <c r="C37" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="291" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -15613,8 +15780,12 @@
       <c r="B38" s="293" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="294"/>
-      <c r="E38" s="294"/>
+      <c r="C38" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="291" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -15654,8 +15825,12 @@
       <c r="B42" s="293" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="294"/>
-      <c r="E42" s="294"/>
+      <c r="C42" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="291" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15665,8 +15840,12 @@
       <c r="B43" s="293" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="294"/>
-      <c r="E43" s="294"/>
+      <c r="C43" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="291" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -15676,8 +15855,12 @@
       <c r="B44" s="293" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="294"/>
-      <c r="E44" s="294"/>
+      <c r="C44" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="291" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -15687,8 +15870,12 @@
       <c r="B45" s="293" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="294"/>
-      <c r="E45" s="294"/>
+      <c r="C45" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="291" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15972,8 +16159,12 @@
       <c r="B16" s="323" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="324"/>
-      <c r="E16" s="324"/>
+      <c r="C16" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="321" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -16003,8 +16194,12 @@
       <c r="B19" s="323" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="324"/>
-      <c r="E19" s="324"/>
+      <c r="C19" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="321" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -16014,8 +16209,12 @@
       <c r="B20" s="323" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="324"/>
-      <c r="E20" s="324"/>
+      <c r="C20" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="321" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -16025,8 +16224,12 @@
       <c r="B21" s="323" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="324"/>
-      <c r="E21" s="324"/>
+      <c r="C21" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="321" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -16036,8 +16239,12 @@
       <c r="B22" s="323" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="324"/>
-      <c r="E22" s="324"/>
+      <c r="C22" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="321" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -16047,8 +16254,12 @@
       <c r="B23" s="323" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="324"/>
-      <c r="E23" s="324"/>
+      <c r="C23" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="321" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -16078,8 +16289,12 @@
       <c r="B26" s="323" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="324"/>
-      <c r="E26" s="324"/>
+      <c r="C26" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="321" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -16089,8 +16304,12 @@
       <c r="B27" s="323" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="324"/>
-      <c r="E27" s="324"/>
+      <c r="C27" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="321" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -16100,8 +16319,12 @@
       <c r="B28" s="323" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="324"/>
-      <c r="E28" s="324"/>
+      <c r="C28" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="321" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -16111,19 +16334,26 @@
       <c r="B29" s="323" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="324"/>
-      <c r="E29" s="324"/>
-      <c r="G29" s="321" t="n">
-        <f>((E29-C29)*24)-1</f>
-        <v>0.0</v>
+      <c r="C29" s="324" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="324" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="321" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="14.4" customHeight="true">
       <c r="B30" s="323" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="324"/>
-      <c r="E30" s="324"/>
+      <c r="C30" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="321" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -16153,8 +16383,12 @@
       <c r="B33" s="323" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="324"/>
-      <c r="E33" s="324"/>
+      <c r="C33" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="321" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -16164,8 +16398,12 @@
       <c r="B34" s="323" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="324"/>
-      <c r="E34" s="324"/>
+      <c r="C34" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="321" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -16175,8 +16413,12 @@
       <c r="B35" s="323" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="324"/>
-      <c r="E35" s="324"/>
+      <c r="C35" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="321" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -16186,8 +16428,12 @@
       <c r="B36" s="323" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="324"/>
-      <c r="E36" s="324"/>
+      <c r="C36" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="321" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -16197,8 +16443,12 @@
       <c r="B37" s="323" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="324"/>
-      <c r="E37" s="324"/>
+      <c r="C37" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="321" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -16228,8 +16478,12 @@
       <c r="B40" s="323" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="324"/>
-      <c r="E40" s="324"/>
+      <c r="C40" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="321" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -16239,8 +16493,12 @@
       <c r="B41" s="323" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="324"/>
-      <c r="E41" s="324"/>
+      <c r="C41" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="321" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -16270,8 +16528,12 @@
       <c r="B44" s="323" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="324"/>
-      <c r="E44" s="324"/>
+      <c r="C44" s="500" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="500" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="321" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="120">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,18 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>VACACIONES</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Medio Dia</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1330,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1605,6 +1619,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2213,20 +2242,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="6.0"/>
-    <col customWidth="1" min="27" max="29" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="21.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5167,24 +5197,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -6660,24 +6691,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -8160,24 +8192,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -9652,24 +9685,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -11151,24 +11185,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -12727,6 +12762,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -12748,24 +12784,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -14334,24 +14371,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -15943,24 +15981,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -17527,24 +17566,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -19131,24 +19171,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20707,24 +20748,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20864,10 +20906,10 @@
       <c r="B16" s="122">
         <v>1.0</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" s="106">
@@ -20899,10 +20941,10 @@
       <c r="B19" s="122">
         <v>4.0</v>
       </c>
-      <c r="C19" s="110">
+      <c r="C19" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E19" s="110">
+      <c r="E19" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G19" s="106">
@@ -20914,10 +20956,10 @@
       <c r="B20" s="122">
         <v>5.0</v>
       </c>
-      <c r="C20" s="110">
+      <c r="C20" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E20" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G20" s="106">
@@ -20929,10 +20971,10 @@
       <c r="B21" s="122">
         <v>6.0</v>
       </c>
-      <c r="C21" s="110">
+      <c r="C21" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G21" s="106">
@@ -20944,10 +20986,10 @@
       <c r="B22" s="122">
         <v>7.0</v>
       </c>
-      <c r="C22" s="110">
+      <c r="C22" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E22" s="110">
+      <c r="E22" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G22" s="106">
@@ -20959,10 +21001,10 @@
       <c r="B23" s="122">
         <v>8.0</v>
       </c>
-      <c r="C23" s="110">
+      <c r="C23" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G23" s="106">
@@ -20994,10 +21036,10 @@
       <c r="B26" s="122">
         <v>11.0</v>
       </c>
-      <c r="C26" s="110">
+      <c r="C26" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E26" s="110">
+      <c r="E26" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G26" s="106">
@@ -21009,10 +21051,10 @@
       <c r="B27" s="122">
         <v>12.0</v>
       </c>
-      <c r="C27" s="110">
+      <c r="C27" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E27" s="110">
+      <c r="E27" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G27" s="106">
@@ -21024,10 +21066,10 @@
       <c r="B28" s="122">
         <v>13.0</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E28" s="110">
+      <c r="E28" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G28" s="106">
@@ -21053,10 +21095,10 @@
       <c r="B30" s="122">
         <v>15.0</v>
       </c>
-      <c r="C30" s="110">
+      <c r="C30" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E30" s="110">
+      <c r="E30" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G30" s="106">
@@ -21088,10 +21130,10 @@
       <c r="B33" s="122">
         <v>18.0</v>
       </c>
-      <c r="C33" s="110">
+      <c r="C33" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E33" s="110">
+      <c r="E33" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G33" s="106">
@@ -21103,10 +21145,10 @@
       <c r="B34" s="122">
         <v>19.0</v>
       </c>
-      <c r="C34" s="110">
+      <c r="C34" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E34" s="110">
+      <c r="E34" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G34" s="106">
@@ -21118,10 +21160,10 @@
       <c r="B35" s="122">
         <v>20.0</v>
       </c>
-      <c r="C35" s="110">
+      <c r="C35" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E35" s="110">
+      <c r="E35" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G35" s="106">
@@ -21133,10 +21175,10 @@
       <c r="B36" s="122">
         <v>21.0</v>
       </c>
-      <c r="C36" s="110">
+      <c r="C36" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E36" s="110">
+      <c r="E36" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G36" s="106">
@@ -21148,10 +21190,10 @@
       <c r="B37" s="122">
         <v>22.0</v>
       </c>
-      <c r="C37" s="110">
+      <c r="C37" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E37" s="110">
+      <c r="E37" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G37" s="106">
@@ -21183,10 +21225,10 @@
       <c r="B40" s="122">
         <v>25.0</v>
       </c>
-      <c r="C40" s="110">
+      <c r="C40" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E40" s="110">
+      <c r="E40" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G40" s="106">
@@ -21198,10 +21240,10 @@
       <c r="B41" s="122">
         <v>26.0</v>
       </c>
-      <c r="C41" s="110">
+      <c r="C41" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E41" s="110">
+      <c r="E41" s="128" t="n">
         <v>0.75</v>
       </c>
       <c r="G41" s="106">
@@ -21233,15 +21275,14 @@
       <c r="B44" s="122">
         <v>29.0</v>
       </c>
-      <c r="C44" s="110">
+      <c r="C44" s="128" t="n">
         <v>0.375</v>
       </c>
-      <c r="E44" s="110">
+      <c r="E44" s="128" t="n">
         <v>0.75</v>
       </c>
-      <c r="G44" s="106">
-        <f>IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
-        <v>8</v>
+      <c r="G44" s="106" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
@@ -22281,24 +22322,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -22438,8 +22480,12 @@
       <c r="B16" s="122">
         <v>1.0</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="E16" s="109"/>
+      <c r="C16" s="129" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="129" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="106">
         <f t="shared" ref="G16:G20" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -22449,8 +22495,12 @@
       <c r="B17" s="122">
         <v>2.0</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="C17" s="129" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="129" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22460,8 +22510,12 @@
       <c r="B18" s="122">
         <v>3.0</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="E18" s="109"/>
+      <c r="C18" s="129" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="129" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22471,8 +22525,12 @@
       <c r="B19" s="122">
         <v>4.0</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="E19" s="109"/>
+      <c r="C19" s="129" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="129" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22482,8 +22540,12 @@
       <c r="B20" s="122">
         <v>5.0</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="E20" s="109"/>
+      <c r="C20" s="129" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="129" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -22513,55 +22575,70 @@
       <c r="B23" s="122">
         <v>8.0</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="G23" s="106">
-        <f t="shared" ref="G23:G27" si="2">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="B24" s="122">
         <v>9.0</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="G24" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C24" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="B25" s="122">
         <v>10.0</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="G25" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C25" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="B26" s="122">
         <v>11.0</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="G26" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C26" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="B27" s="122">
         <v>12.0</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="G27" s="106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C27" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
@@ -22598,44 +22675,56 @@
       <c r="B31" s="122">
         <v>16.0</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="G31" s="106">
-        <f t="shared" ref="G31:G34" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="122">
         <v>17.0</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="G32" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C32" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="122">
         <v>18.0</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="G33" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C33" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="122">
         <v>19.0</v>
       </c>
-      <c r="C34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="G34" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C34" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -22662,55 +22751,70 @@
       <c r="B37" s="122">
         <v>22.0</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="G37" s="106">
-        <f t="shared" ref="G37:G41" si="4">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
-        <v>0</v>
+      <c r="C37" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="B38" s="122">
         <v>23.0</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="G38" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C38" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="122">
         <v>24.0</v>
       </c>
-      <c r="C39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="G39" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C39" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="122">
         <v>25.0</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="G40" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C40" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="122">
         <v>26.0</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="G41" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C41" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Jenniesley Rojo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="122">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Medio dia</t>
+  </si>
+  <si>
+    <t>medio dia</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1619,6 +1625,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -5355,11 +5373,14 @@
       <c r="B16" s="122">
         <v>1.0</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="G16" s="106">
-        <f t="shared" ref="G16:G17" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -5369,7 +5390,7 @@
       <c r="C17" s="109"/>
       <c r="E17" s="109"/>
       <c r="G17" s="106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1" ref="G17">IF((E17-C17)*24&lt;=4,(E17-C17)*24,(E17-C17)*24-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -14350,6 +14371,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -15960,6 +15982,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -17545,6 +17568,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -19150,6 +19174,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -20727,6 +20752,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22301,6 +22327,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22480,10 +22507,10 @@
       <c r="B16" s="122">
         <v>1.0</v>
       </c>
-      <c r="C16" s="129" t="n">
+      <c r="C16" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E16" s="129" t="n">
+      <c r="E16" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" s="106">
@@ -22495,10 +22522,10 @@
       <c r="B17" s="122">
         <v>2.0</v>
       </c>
-      <c r="C17" s="129" t="n">
+      <c r="C17" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E17" s="129" t="n">
+      <c r="E17" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G17" s="106">
@@ -22510,10 +22537,10 @@
       <c r="B18" s="122">
         <v>3.0</v>
       </c>
-      <c r="C18" s="129" t="n">
+      <c r="C18" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E18" s="129" t="n">
+      <c r="E18" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G18" s="106">
@@ -22525,10 +22552,10 @@
       <c r="B19" s="122">
         <v>4.0</v>
       </c>
-      <c r="C19" s="129" t="n">
+      <c r="C19" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E19" s="129" t="n">
+      <c r="E19" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G19" s="106">
@@ -22540,10 +22567,10 @@
       <c r="B20" s="122">
         <v>5.0</v>
       </c>
-      <c r="C20" s="129" t="n">
+      <c r="C20" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E20" s="129" t="n">
+      <c r="E20" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G20" s="106">
@@ -22841,21 +22868,28 @@
       <c r="B44" s="122">
         <v>29.0</v>
       </c>
-      <c r="C44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="G44" s="106">
-        <f t="shared" ref="G44:G46" si="5">IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
-        <v>0</v>
+      <c r="C44" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="132" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G44" s="106" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="122">
         <v>30.0</v>
       </c>
-      <c r="C45" s="109"/>
-      <c r="E45" s="109"/>
+      <c r="C45" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="132" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="5" ref="G45:G46">IF((E45-C45)*24&lt;=4,(E45-C45)*24,(E45-C45)*24-1)</f>
         <v>0</v>
       </c>
     </row>
@@ -22863,8 +22897,12 @@
       <c r="B46" s="122">
         <v>31.0</v>
       </c>
-      <c r="C46" s="109"/>
-      <c r="E46" s="109"/>
+      <c r="C46" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="132" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G46" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
